--- a/result/problem_1/meonf/result_10.xlsx
+++ b/result/problem_1/meonf/result_10.xlsx
@@ -496,10 +496,10 @@
         <v>11356788</v>
       </c>
       <c r="C3" t="n">
-        <v>2463</v>
+        <v>2696</v>
       </c>
       <c r="D3" t="n">
-        <v>2601</v>
+        <v>2834</v>
       </c>
       <c r="E3" t="n">
         <v>3150</v>
@@ -542,16 +542,16 @@
         <v>11369802</v>
       </c>
       <c r="C5" t="n">
-        <v>15361</v>
+        <v>15620</v>
       </c>
       <c r="D5" t="n">
-        <v>15607</v>
+        <v>15866</v>
       </c>
       <c r="E5" t="n">
         <v>15750</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="G5" t="n">
         <v>246</v>
@@ -565,10 +565,10 @@
         <v>11369803</v>
       </c>
       <c r="C6" t="n">
-        <v>14889</v>
+        <v>15148</v>
       </c>
       <c r="D6" t="n">
-        <v>15125</v>
+        <v>15384</v>
       </c>
       <c r="E6" t="n">
         <v>15750</v>
@@ -588,10 +588,10 @@
         <v>11370167</v>
       </c>
       <c r="C7" t="n">
-        <v>15125</v>
+        <v>15384</v>
       </c>
       <c r="D7" t="n">
-        <v>15361</v>
+        <v>15620</v>
       </c>
       <c r="E7" t="n">
         <v>15750</v>
@@ -634,10 +634,10 @@
         <v>11370884</v>
       </c>
       <c r="C9" t="n">
-        <v>3367</v>
+        <v>3605</v>
       </c>
       <c r="D9" t="n">
-        <v>3603</v>
+        <v>3841</v>
       </c>
       <c r="E9" t="n">
         <v>4500</v>
@@ -660,13 +660,13 @@
         <v>2160</v>
       </c>
       <c r="D10" t="n">
-        <v>2834</v>
+        <v>2626</v>
       </c>
       <c r="E10" t="n">
         <v>2250</v>
       </c>
       <c r="F10" t="n">
-        <v>584</v>
+        <v>376</v>
       </c>
       <c r="G10" t="n">
         <v>466</v>
@@ -683,13 +683,13 @@
         <v>3129</v>
       </c>
       <c r="D11" t="n">
-        <v>3841</v>
+        <v>3605</v>
       </c>
       <c r="E11" t="n">
         <v>2250</v>
       </c>
       <c r="F11" t="n">
-        <v>1591</v>
+        <v>1355</v>
       </c>
       <c r="G11" t="n">
         <v>476</v>
@@ -864,10 +864,10 @@
         <v>11380460</v>
       </c>
       <c r="C19" t="n">
-        <v>2393</v>
+        <v>2626</v>
       </c>
       <c r="D19" t="n">
-        <v>2423</v>
+        <v>2656</v>
       </c>
       <c r="E19" t="n">
         <v>3150</v>
@@ -887,10 +887,10 @@
         <v>11380579</v>
       </c>
       <c r="C20" t="n">
-        <v>2423</v>
+        <v>2656</v>
       </c>
       <c r="D20" t="n">
-        <v>2463</v>
+        <v>2696</v>
       </c>
       <c r="E20" t="n">
         <v>3150</v>
@@ -1212,13 +1212,13 @@
         <v>4317</v>
       </c>
       <c r="D34" t="n">
-        <v>5025</v>
+        <v>4793</v>
       </c>
       <c r="E34" t="n">
         <v>2250</v>
       </c>
       <c r="F34" t="n">
-        <v>2775</v>
+        <v>2543</v>
       </c>
       <c r="G34" t="n">
         <v>476</v>
@@ -1255,10 +1255,10 @@
         <v>11420907</v>
       </c>
       <c r="C36" t="n">
-        <v>13755</v>
+        <v>14014</v>
       </c>
       <c r="D36" t="n">
-        <v>13961</v>
+        <v>14220</v>
       </c>
       <c r="E36" t="n">
         <v>15750</v>
@@ -1761,10 +1761,10 @@
         <v>11435148</v>
       </c>
       <c r="C58" t="n">
-        <v>4555</v>
+        <v>4793</v>
       </c>
       <c r="D58" t="n">
-        <v>4787</v>
+        <v>5025</v>
       </c>
       <c r="E58" t="n">
         <v>6750</v>
@@ -2063,13 +2063,13 @@
         <v>13496</v>
       </c>
       <c r="D71" t="n">
-        <v>15866</v>
+        <v>14014</v>
       </c>
       <c r="E71" t="n">
         <v>6750</v>
       </c>
       <c r="F71" t="n">
-        <v>9116</v>
+        <v>7264</v>
       </c>
       <c r="G71" t="n">
         <v>518</v>
@@ -2267,10 +2267,10 @@
         <v>11492850</v>
       </c>
       <c r="C80" t="n">
-        <v>13961</v>
+        <v>14220</v>
       </c>
       <c r="D80" t="n">
-        <v>14193</v>
+        <v>14452</v>
       </c>
       <c r="E80" t="n">
         <v>15750</v>
@@ -2290,10 +2290,10 @@
         <v>11492851</v>
       </c>
       <c r="C81" t="n">
-        <v>14193</v>
+        <v>14452</v>
       </c>
       <c r="D81" t="n">
-        <v>14425</v>
+        <v>14684</v>
       </c>
       <c r="E81" t="n">
         <v>15750</v>
@@ -2313,10 +2313,10 @@
         <v>11492852</v>
       </c>
       <c r="C82" t="n">
-        <v>14425</v>
+        <v>14684</v>
       </c>
       <c r="D82" t="n">
-        <v>14657</v>
+        <v>14916</v>
       </c>
       <c r="E82" t="n">
         <v>15750</v>
@@ -2336,10 +2336,10 @@
         <v>11492853</v>
       </c>
       <c r="C83" t="n">
-        <v>14657</v>
+        <v>14916</v>
       </c>
       <c r="D83" t="n">
-        <v>14889</v>
+        <v>15148</v>
       </c>
       <c r="E83" t="n">
         <v>15750</v>
